--- a/natmiOut/OldD4/LR-pairs_lrc2p/Jam3-Jam2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Jam3-Jam2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.5984308939255</v>
+        <v>14.81992233333333</v>
       </c>
       <c r="H2">
-        <v>14.5984308939255</v>
+        <v>44.459767</v>
       </c>
       <c r="I2">
-        <v>0.3456899286154685</v>
+        <v>0.3209978760059931</v>
       </c>
       <c r="J2">
-        <v>0.3456899286154685</v>
+        <v>0.3765722694589785</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>87.8619383134192</v>
+        <v>90.93578100000001</v>
       </c>
       <c r="N2">
-        <v>87.8619383134192</v>
+        <v>272.807343</v>
       </c>
       <c r="O2">
-        <v>0.9509974722689662</v>
+        <v>0.9464306336362939</v>
       </c>
       <c r="P2">
-        <v>0.9509974722689662</v>
+        <v>0.9526128641701582</v>
       </c>
       <c r="Q2">
-        <v>1282.646434674795</v>
+        <v>1347.661211741009</v>
       </c>
       <c r="R2">
-        <v>1282.646434674795</v>
+        <v>12128.95090566908</v>
       </c>
       <c r="S2">
-        <v>0.32875024830215</v>
+        <v>0.3038022231842565</v>
       </c>
       <c r="T2">
-        <v>0.32875024830215</v>
+        <v>0.3587275881763741</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.5984308939255</v>
+        <v>14.81992233333333</v>
       </c>
       <c r="H3">
-        <v>14.5984308939255</v>
+        <v>44.459767</v>
       </c>
       <c r="I3">
-        <v>0.3456899286154685</v>
+        <v>0.3209978760059931</v>
       </c>
       <c r="J3">
-        <v>0.3456899286154685</v>
+        <v>0.3765722694589785</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.68939051379992</v>
+        <v>2.957564333333333</v>
       </c>
       <c r="N3">
-        <v>2.68939051379992</v>
+        <v>8.872693</v>
       </c>
       <c r="O3">
-        <v>0.02910934620454687</v>
+        <v>0.0307813872079327</v>
       </c>
       <c r="P3">
-        <v>0.02910934620454687</v>
+        <v>0.03098245596575644</v>
       </c>
       <c r="Q3">
-        <v>39.26088156248692</v>
+        <v>43.83087371583678</v>
       </c>
       <c r="R3">
-        <v>39.26088156248692</v>
+        <v>394.477863442531</v>
       </c>
       <c r="S3">
-        <v>0.01006280781149277</v>
+        <v>0.009880759914264443</v>
       </c>
       <c r="T3">
-        <v>0.01006280781149277</v>
+        <v>0.01166713375643777</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.5984308939255</v>
+        <v>14.81992233333333</v>
       </c>
       <c r="H4">
-        <v>14.5984308939255</v>
+        <v>44.459767</v>
       </c>
       <c r="I4">
-        <v>0.3456899286154685</v>
+        <v>0.3209978760059931</v>
       </c>
       <c r="J4">
-        <v>0.3456899286154685</v>
+        <v>0.3765722694589785</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.83791601881724</v>
+        <v>0.1730576666666667</v>
       </c>
       <c r="N4">
-        <v>1.83791601881724</v>
+        <v>0.519173</v>
       </c>
       <c r="O4">
-        <v>0.01989318152648684</v>
+        <v>0.001801129053028663</v>
       </c>
       <c r="P4">
-        <v>0.01989318152648684</v>
+        <v>0.001812894305157371</v>
       </c>
       <c r="Q4">
-        <v>26.83068998954216</v>
+        <v>2.564701179187889</v>
       </c>
       <c r="R4">
-        <v>26.83068998954216</v>
+        <v>23.082310612691</v>
       </c>
       <c r="S4">
-        <v>0.006876872501825793</v>
+        <v>0.0005781586004348863</v>
       </c>
       <c r="T4">
-        <v>0.006876872501825793</v>
+        <v>0.0006826857227823689</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.29826658473043</v>
+        <v>14.81992233333333</v>
       </c>
       <c r="H5">
-        <v>7.29826658473043</v>
+        <v>44.459767</v>
       </c>
       <c r="I5">
-        <v>0.1728224953095426</v>
+        <v>0.3209978760059931</v>
       </c>
       <c r="J5">
-        <v>0.1728224953095426</v>
+        <v>0.3765722694589785</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>87.8619383134192</v>
+        <v>0.145812</v>
       </c>
       <c r="N5">
-        <v>87.8619383134192</v>
+        <v>0.437436</v>
       </c>
       <c r="O5">
-        <v>0.9509974722689662</v>
+        <v>0.001517564835691852</v>
       </c>
       <c r="P5">
-        <v>0.9509974722689662</v>
+        <v>0.001527477802718592</v>
       </c>
       <c r="Q5">
-        <v>641.2398484624737</v>
+        <v>2.160922515268</v>
       </c>
       <c r="R5">
-        <v>641.2398484624737</v>
+        <v>19.448302637412</v>
       </c>
       <c r="S5">
-        <v>0.1643537561905903</v>
+        <v>0.0004871350889584684</v>
       </c>
       <c r="T5">
-        <v>0.1643537561905903</v>
+        <v>0.000575205782717954</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.29826658473043</v>
+        <v>14.81992233333333</v>
       </c>
       <c r="H6">
-        <v>7.29826658473043</v>
+        <v>44.459767</v>
       </c>
       <c r="I6">
-        <v>0.1728224953095426</v>
+        <v>0.3209978760059931</v>
       </c>
       <c r="J6">
-        <v>0.1728224953095426</v>
+        <v>0.3765722694589785</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.68939051379992</v>
+        <v>1.870665</v>
       </c>
       <c r="N6">
-        <v>2.68939051379992</v>
+        <v>3.74133</v>
       </c>
       <c r="O6">
-        <v>0.02910934620454687</v>
+        <v>0.01946928526705277</v>
       </c>
       <c r="P6">
-        <v>0.02910934620454687</v>
+        <v>0.01306430775620925</v>
       </c>
       <c r="Q6">
-        <v>19.62788892015696</v>
+        <v>27.72311001168499</v>
       </c>
       <c r="R6">
-        <v>19.62788892015696</v>
+        <v>166.33866007011</v>
       </c>
       <c r="S6">
-        <v>0.005030749847899154</v>
+        <v>0.006249599218078713</v>
       </c>
       <c r="T6">
-        <v>0.005030749847899154</v>
+        <v>0.004919656020666252</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,247 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.29826658473043</v>
+        <v>9.417171</v>
       </c>
       <c r="H7">
-        <v>7.29826658473043</v>
+        <v>28.251513</v>
       </c>
       <c r="I7">
-        <v>0.1728224953095426</v>
+        <v>0.2039748806365922</v>
       </c>
       <c r="J7">
-        <v>0.1728224953095426</v>
+        <v>0.2392890715342668</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.83791601881724</v>
+        <v>90.93578100000001</v>
       </c>
       <c r="N7">
-        <v>1.83791601881724</v>
+        <v>272.807343</v>
       </c>
       <c r="O7">
-        <v>0.01989318152648684</v>
+        <v>0.9464306336362939</v>
       </c>
       <c r="P7">
-        <v>0.01989318152648684</v>
+        <v>0.9526128641701582</v>
       </c>
       <c r="Q7">
-        <v>13.41360106567465</v>
+        <v>856.3577996955511</v>
       </c>
       <c r="R7">
-        <v>13.41360106567465</v>
+        <v>7707.220197259959</v>
       </c>
       <c r="S7">
-        <v>0.003437989271053152</v>
+        <v>0.1930480755267774</v>
       </c>
       <c r="T7">
-        <v>0.003437989271053152</v>
+        <v>0.2279498477988758</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>20.3331440223506</v>
+        <v>9.417171</v>
       </c>
       <c r="H8">
-        <v>20.3331440223506</v>
+        <v>28.251513</v>
       </c>
       <c r="I8">
-        <v>0.4814875760749887</v>
+        <v>0.2039748806365922</v>
       </c>
       <c r="J8">
-        <v>0.4814875760749887</v>
+        <v>0.2392890715342668</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>87.8619383134192</v>
+        <v>2.957564333333333</v>
       </c>
       <c r="N8">
-        <v>87.8619383134192</v>
+        <v>8.872693</v>
       </c>
       <c r="O8">
-        <v>0.9509974722689662</v>
+        <v>0.0307813872079327</v>
       </c>
       <c r="P8">
-        <v>0.9509974722689662</v>
+        <v>0.03098245596575644</v>
       </c>
       <c r="Q8">
-        <v>1786.509445809637</v>
+        <v>27.851889070501</v>
       </c>
       <c r="R8">
-        <v>1786.509445809637</v>
+        <v>250.667001634509</v>
       </c>
       <c r="S8">
-        <v>0.4578934677762259</v>
+        <v>0.006278629781566799</v>
       </c>
       <c r="T8">
-        <v>0.4578934677762259</v>
+        <v>0.007413763121897164</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>20.3331440223506</v>
+        <v>9.417171</v>
       </c>
       <c r="H9">
-        <v>20.3331440223506</v>
+        <v>28.251513</v>
       </c>
       <c r="I9">
-        <v>0.4814875760749887</v>
+        <v>0.2039748806365922</v>
       </c>
       <c r="J9">
-        <v>0.4814875760749887</v>
+        <v>0.2392890715342668</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>2.68939051379992</v>
+        <v>0.1730576666666667</v>
       </c>
       <c r="N9">
-        <v>2.68939051379992</v>
+        <v>0.519173</v>
       </c>
       <c r="O9">
-        <v>0.02910934620454687</v>
+        <v>0.001801129053028663</v>
       </c>
       <c r="P9">
-        <v>0.02910934620454687</v>
+        <v>0.001812894305157371</v>
       </c>
       <c r="Q9">
-        <v>54.68376464943724</v>
+        <v>1.629713639861</v>
       </c>
       <c r="R9">
-        <v>54.68376464943724</v>
+        <v>14.667422758749</v>
       </c>
       <c r="S9">
-        <v>0.01401578854515494</v>
+        <v>0.0003673850836026198</v>
       </c>
       <c r="T9">
-        <v>0.01401578854515494</v>
+        <v>0.000433805795070867</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>9.417171</v>
+      </c>
+      <c r="H10">
+        <v>28.251513</v>
+      </c>
+      <c r="I10">
+        <v>0.2039748806365922</v>
+      </c>
+      <c r="J10">
+        <v>0.2392890715342668</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.145812</v>
+      </c>
+      <c r="N10">
+        <v>0.437436</v>
+      </c>
+      <c r="O10">
+        <v>0.001517564835691852</v>
+      </c>
+      <c r="P10">
+        <v>0.001527477802718592</v>
+      </c>
+      <c r="Q10">
+        <v>1.373136537852</v>
+      </c>
+      <c r="R10">
+        <v>12.358228840668</v>
+      </c>
+      <c r="S10">
+        <v>0.0003095451062185353</v>
+      </c>
+      <c r="T10">
+        <v>0.0003655087452017338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>9.417171</v>
+      </c>
+      <c r="H11">
+        <v>28.251513</v>
+      </c>
+      <c r="I11">
+        <v>0.2039748806365922</v>
+      </c>
+      <c r="J11">
+        <v>0.2392890715342668</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.870665</v>
+      </c>
+      <c r="N11">
+        <v>3.74133</v>
+      </c>
+      <c r="O11">
+        <v>0.01946928526705277</v>
+      </c>
+      <c r="P11">
+        <v>0.01306430775620925</v>
+      </c>
+      <c r="Q11">
+        <v>17.616372188715</v>
+      </c>
+      <c r="R11">
+        <v>105.69823313229</v>
+      </c>
+      <c r="S11">
+        <v>0.003971245138426852</v>
+      </c>
+      <c r="T11">
+        <v>0.003126146073221232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.9286793333333333</v>
+      </c>
+      <c r="H12">
+        <v>2.786038</v>
+      </c>
+      <c r="I12">
+        <v>0.02011509148196806</v>
+      </c>
+      <c r="J12">
+        <v>0.0235976192241168</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>90.93578100000001</v>
+      </c>
+      <c r="N12">
+        <v>272.807343</v>
+      </c>
+      <c r="O12">
+        <v>0.9464306336362939</v>
+      </c>
+      <c r="P12">
+        <v>0.9526128641701582</v>
+      </c>
+      <c r="Q12">
+        <v>84.45018047522601</v>
+      </c>
+      <c r="R12">
+        <v>760.051624277034</v>
+      </c>
+      <c r="S12">
+        <v>0.01903753877693105</v>
+      </c>
+      <c r="T12">
+        <v>0.02247939563668269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.9286793333333333</v>
+      </c>
+      <c r="H13">
+        <v>2.786038</v>
+      </c>
+      <c r="I13">
+        <v>0.02011509148196806</v>
+      </c>
+      <c r="J13">
+        <v>0.0235976192241168</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.957564333333333</v>
+      </c>
+      <c r="N13">
+        <v>8.872693</v>
+      </c>
+      <c r="O13">
+        <v>0.0307813872079327</v>
+      </c>
+      <c r="P13">
+        <v>0.03098245596575644</v>
+      </c>
+      <c r="Q13">
+        <v>2.746628873370444</v>
+      </c>
+      <c r="R13">
+        <v>24.719659860334</v>
+      </c>
+      <c r="S13">
+        <v>0.0006191704196294479</v>
+      </c>
+      <c r="T13">
+        <v>0.0007311121985078864</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.9286793333333333</v>
+      </c>
+      <c r="H14">
+        <v>2.786038</v>
+      </c>
+      <c r="I14">
+        <v>0.02011509148196806</v>
+      </c>
+      <c r="J14">
+        <v>0.0235976192241168</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1730576666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.519173</v>
+      </c>
+      <c r="O14">
+        <v>0.001801129053028663</v>
+      </c>
+      <c r="P14">
+        <v>0.001812894305157371</v>
+      </c>
+      <c r="Q14">
+        <v>0.1607150785082222</v>
+      </c>
+      <c r="R14">
+        <v>1.446435706574</v>
+      </c>
+      <c r="S14">
+        <v>3.622987567250206E-05</v>
+      </c>
+      <c r="T14">
+        <v>4.277998950667344E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.9286793333333333</v>
+      </c>
+      <c r="H15">
+        <v>2.786038</v>
+      </c>
+      <c r="I15">
+        <v>0.02011509148196806</v>
+      </c>
+      <c r="J15">
+        <v>0.0235976192241168</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.145812</v>
+      </c>
+      <c r="N15">
+        <v>0.437436</v>
+      </c>
+      <c r="O15">
+        <v>0.001517564835691852</v>
+      </c>
+      <c r="P15">
+        <v>0.001527477802718592</v>
+      </c>
+      <c r="Q15">
+        <v>0.135412590952</v>
+      </c>
+      <c r="R15">
+        <v>1.218713318568</v>
+      </c>
+      <c r="S15">
+        <v>3.052595549975944E-05</v>
+      </c>
+      <c r="T15">
+        <v>3.604483956184394E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.9286793333333333</v>
+      </c>
+      <c r="H16">
+        <v>2.786038</v>
+      </c>
+      <c r="I16">
+        <v>0.02011509148196806</v>
+      </c>
+      <c r="J16">
+        <v>0.0235976192241168</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.870665</v>
+      </c>
+      <c r="N16">
+        <v>3.74133</v>
+      </c>
+      <c r="O16">
+        <v>0.01946928526705277</v>
+      </c>
+      <c r="P16">
+        <v>0.01306430775620925</v>
+      </c>
+      <c r="Q16">
+        <v>1.73724792509</v>
+      </c>
+      <c r="R16">
+        <v>10.42348755054</v>
+      </c>
+      <c r="S16">
+        <v>0.0003916264542352996</v>
+      </c>
+      <c r="T16">
+        <v>0.0003082865598577016</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.5620196666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.686059</v>
+      </c>
+      <c r="I17">
+        <v>0.01217328372010561</v>
+      </c>
+      <c r="J17">
+        <v>0.0142808455130171</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>90.93578100000001</v>
+      </c>
+      <c r="N17">
+        <v>272.807343</v>
+      </c>
+      <c r="O17">
+        <v>0.9464306336362939</v>
+      </c>
+      <c r="P17">
+        <v>0.9526128641701582</v>
+      </c>
+      <c r="Q17">
+        <v>51.107697325693</v>
+      </c>
+      <c r="R17">
+        <v>459.969275931237</v>
+      </c>
+      <c r="S17">
+        <v>0.01152116862465393</v>
+      </c>
+      <c r="T17">
+        <v>0.01360411714692678</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.5620196666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.686059</v>
+      </c>
+      <c r="I18">
+        <v>0.01217328372010561</v>
+      </c>
+      <c r="J18">
+        <v>0.0142808455130171</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.957564333333333</v>
+      </c>
+      <c r="N18">
+        <v>8.872693</v>
+      </c>
+      <c r="O18">
+        <v>0.0307813872079327</v>
+      </c>
+      <c r="P18">
+        <v>0.03098245596575644</v>
+      </c>
+      <c r="Q18">
+        <v>1.662209320765222</v>
+      </c>
+      <c r="R18">
+        <v>14.959883886887</v>
+      </c>
+      <c r="S18">
+        <v>0.0003747105597805943</v>
+      </c>
+      <c r="T18">
+        <v>0.0004424556672608228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>20.3331440223506</v>
-      </c>
-      <c r="H10">
-        <v>20.3331440223506</v>
-      </c>
-      <c r="I10">
-        <v>0.4814875760749887</v>
-      </c>
-      <c r="J10">
-        <v>0.4814875760749887</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.83791601881724</v>
-      </c>
-      <c r="N10">
-        <v>1.83791601881724</v>
-      </c>
-      <c r="O10">
-        <v>0.01989318152648684</v>
-      </c>
-      <c r="P10">
-        <v>0.01989318152648684</v>
-      </c>
-      <c r="Q10">
-        <v>37.37061111159618</v>
-      </c>
-      <c r="R10">
-        <v>37.37061111159618</v>
-      </c>
-      <c r="S10">
-        <v>0.009578319753607891</v>
-      </c>
-      <c r="T10">
-        <v>0.009578319753607891</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.5620196666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.686059</v>
+      </c>
+      <c r="I19">
+        <v>0.01217328372010561</v>
+      </c>
+      <c r="J19">
+        <v>0.0142808455130171</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.1730576666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.519173</v>
+      </c>
+      <c r="O19">
+        <v>0.001801129053028663</v>
+      </c>
+      <c r="P19">
+        <v>0.001812894305157371</v>
+      </c>
+      <c r="Q19">
+        <v>0.09726181213411111</v>
+      </c>
+      <c r="R19">
+        <v>0.875356309207</v>
+      </c>
+      <c r="S19">
+        <v>2.192565497904306E-05</v>
+      </c>
+      <c r="T19">
+        <v>2.58896635033809E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.5620196666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.686059</v>
+      </c>
+      <c r="I20">
+        <v>0.01217328372010561</v>
+      </c>
+      <c r="J20">
+        <v>0.0142808455130171</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.145812</v>
+      </c>
+      <c r="N20">
+        <v>0.437436</v>
+      </c>
+      <c r="O20">
+        <v>0.001517564835691852</v>
+      </c>
+      <c r="P20">
+        <v>0.001527477802718592</v>
+      </c>
+      <c r="Q20">
+        <v>0.081949211636</v>
+      </c>
+      <c r="R20">
+        <v>0.737542904724</v>
+      </c>
+      <c r="S20">
+        <v>1.847374730853238E-05</v>
+      </c>
+      <c r="T20">
+        <v>2.181367452518703E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.5620196666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.686059</v>
+      </c>
+      <c r="I21">
+        <v>0.01217328372010561</v>
+      </c>
+      <c r="J21">
+        <v>0.0142808455130171</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.870665</v>
+      </c>
+      <c r="N21">
+        <v>3.74133</v>
+      </c>
+      <c r="O21">
+        <v>0.01946928526705277</v>
+      </c>
+      <c r="P21">
+        <v>0.01306430775620925</v>
+      </c>
+      <c r="Q21">
+        <v>1.051350519745</v>
+      </c>
+      <c r="R21">
+        <v>6.308103118469999</v>
+      </c>
+      <c r="S21">
+        <v>0.0002370051333835056</v>
+      </c>
+      <c r="T21">
+        <v>0.0001865693608009354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>20.4404955</v>
+      </c>
+      <c r="H22">
+        <v>40.880991</v>
+      </c>
+      <c r="I22">
+        <v>0.442738868155341</v>
+      </c>
+      <c r="J22">
+        <v>0.3462601942696208</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>90.93578100000001</v>
+      </c>
+      <c r="N22">
+        <v>272.807343</v>
+      </c>
+      <c r="O22">
+        <v>0.9464306336362939</v>
+      </c>
+      <c r="P22">
+        <v>0.9526128641701582</v>
+      </c>
+      <c r="Q22">
+        <v>1858.772422319486</v>
+      </c>
+      <c r="R22">
+        <v>11152.63453391691</v>
+      </c>
+      <c r="S22">
+        <v>0.4190216275236749</v>
+      </c>
+      <c r="T22">
+        <v>0.3298519154112989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>20.4404955</v>
+      </c>
+      <c r="H23">
+        <v>40.880991</v>
+      </c>
+      <c r="I23">
+        <v>0.442738868155341</v>
+      </c>
+      <c r="J23">
+        <v>0.3462601942696208</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.957564333333333</v>
+      </c>
+      <c r="N23">
+        <v>8.872693</v>
+      </c>
+      <c r="O23">
+        <v>0.0307813872079327</v>
+      </c>
+      <c r="P23">
+        <v>0.03098245596575644</v>
+      </c>
+      <c r="Q23">
+        <v>60.4540804464605</v>
+      </c>
+      <c r="R23">
+        <v>362.724482678763</v>
+      </c>
+      <c r="S23">
+        <v>0.01362811653269142</v>
+      </c>
+      <c r="T23">
+        <v>0.0107279912216528</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>20.4404955</v>
+      </c>
+      <c r="H24">
+        <v>40.880991</v>
+      </c>
+      <c r="I24">
+        <v>0.442738868155341</v>
+      </c>
+      <c r="J24">
+        <v>0.3462601942696208</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.1730576666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.519173</v>
+      </c>
+      <c r="O24">
+        <v>0.001801129053028663</v>
+      </c>
+      <c r="P24">
+        <v>0.001812894305157371</v>
+      </c>
+      <c r="Q24">
+        <v>3.5373844567405</v>
+      </c>
+      <c r="R24">
+        <v>21.224306740443</v>
+      </c>
+      <c r="S24">
+        <v>0.0007974298383396113</v>
+      </c>
+      <c r="T24">
+        <v>0.0006277331342940804</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>20.4404955</v>
+      </c>
+      <c r="H25">
+        <v>40.880991</v>
+      </c>
+      <c r="I25">
+        <v>0.442738868155341</v>
+      </c>
+      <c r="J25">
+        <v>0.3462601942696208</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.145812</v>
+      </c>
+      <c r="N25">
+        <v>0.437436</v>
+      </c>
+      <c r="O25">
+        <v>0.001517564835691852</v>
+      </c>
+      <c r="P25">
+        <v>0.001527477802718592</v>
+      </c>
+      <c r="Q25">
+        <v>2.980469529846</v>
+      </c>
+      <c r="R25">
+        <v>17.882817179076</v>
+      </c>
+      <c r="S25">
+        <v>0.0006718849377065567</v>
+      </c>
+      <c r="T25">
+        <v>0.0005289047607118732</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>20.4404955</v>
+      </c>
+      <c r="H26">
+        <v>40.880991</v>
+      </c>
+      <c r="I26">
+        <v>0.442738868155341</v>
+      </c>
+      <c r="J26">
+        <v>0.3462601942696208</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.870665</v>
+      </c>
+      <c r="N26">
+        <v>3.74133</v>
+      </c>
+      <c r="O26">
+        <v>0.01946928526705277</v>
+      </c>
+      <c r="P26">
+        <v>0.01306430775620925</v>
+      </c>
+      <c r="Q26">
+        <v>38.2373195145075</v>
+      </c>
+      <c r="R26">
+        <v>152.94927805803</v>
+      </c>
+      <c r="S26">
+        <v>0.0086198093229284</v>
+      </c>
+      <c r="T26">
+        <v>0.004523649741663129</v>
       </c>
     </row>
   </sheetData>
